--- a/biology/Zoologie/Chalcides_ocellatus/Chalcides_ocellatus.xlsx
+++ b/biology/Zoologie/Chalcides_ocellatus/Chalcides_ocellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides ocellatus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides ocellatus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 à Malte, à Chypre, sur les îles de Sardaigne, de Sicile et de Lampedusa en Italie, sur les îles de Karpathos, de Crète et de Rhodes en Grèce ;
 en Afrique du Nord ainsi qu'au Kenya et en Somalie ;
 au Moyen-Orient ;
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce scinque atteint au maximum environ 30 cm, la queue occupant près de la moitié du corps. Il a une tête courte, un corps cylindrique et vit dans des zones plutôt arides.
 </t>
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de divers insectes ou arthropodes ainsi que de petits lézards.
 </t>
@@ -607,9 +625,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle est vivipare[2] et donne donc naissance à un petit vivant, plus rarement des jumeaux.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle est vivipare et donne donc naissance à un petit vivant, plus rarement des jumeaux.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 août 2012)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 août 2012) :
 Chalcides ocellatus linosae Boulenger, 1920
 Chalcides ocellatus ocellatus (Forskål, 1775)
 Chalcides ocellatus sacchii Lanza, 1954
@@ -674,9 +696,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, ocellatus, vient du latin ocellus, « petit œil », car cette espèce a de nombreuses ocelles noires et blanches[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, ocellatus, vient du latin ocellus, « petit œil », car cette espèce a de nombreuses ocelles noires et blanches.
 </t>
         </is>
       </c>
